--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Slurp1-Chrna7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Slurp1-Chrna7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.4197276666666667</v>
+        <v>0.013678</v>
       </c>
       <c r="H2">
-        <v>1.259183</v>
+        <v>0.041034</v>
       </c>
       <c r="I2">
-        <v>0.6621316277815084</v>
+        <v>0.02112166033112941</v>
       </c>
       <c r="J2">
-        <v>0.6621316277815084</v>
+        <v>0.02112166033112941</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,19 +561,19 @@
         <v>0.3951499920672696</v>
       </c>
       <c r="P2">
-        <v>0.3951499920672696</v>
+        <v>0.3951499920672695</v>
       </c>
       <c r="Q2">
-        <v>0.2177888513168889</v>
+        <v>0.007097258877333333</v>
       </c>
       <c r="R2">
-        <v>1.960099661852</v>
+        <v>0.063875329896</v>
       </c>
       <c r="S2">
-        <v>0.2616413074653513</v>
+        <v>0.008346223912293347</v>
       </c>
       <c r="T2">
-        <v>0.2616413074653513</v>
+        <v>0.008346223912293348</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.4197276666666667</v>
+        <v>0.013678</v>
       </c>
       <c r="H3">
-        <v>1.259183</v>
+        <v>0.041034</v>
       </c>
       <c r="I3">
-        <v>0.6621316277815084</v>
+        <v>0.02112166033112941</v>
       </c>
       <c r="J3">
-        <v>0.6621316277815084</v>
+        <v>0.02112166033112941</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -611,7 +614,7 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.7942436666666666</v>
+        <v>0.7942436666666667</v>
       </c>
       <c r="N3">
         <v>2.382731</v>
@@ -623,16 +626,16 @@
         <v>0.6048500079327305</v>
       </c>
       <c r="Q3">
-        <v>0.3333660409747778</v>
+        <v>0.01086366487266667</v>
       </c>
       <c r="R3">
-        <v>3.000294368773</v>
+        <v>0.097772983854</v>
       </c>
       <c r="S3">
-        <v>0.4004903203161571</v>
+        <v>0.01277543641883606</v>
       </c>
       <c r="T3">
-        <v>0.4004903203161571</v>
+        <v>0.01277543641883606</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -640,31 +643,31 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.214176</v>
+        <v>0.4197276666666667</v>
       </c>
       <c r="H4">
-        <v>0.642528</v>
+        <v>1.259183</v>
       </c>
       <c r="I4">
-        <v>0.3378683722184916</v>
+        <v>0.6481463084450094</v>
       </c>
       <c r="J4">
-        <v>0.3378683722184916</v>
+        <v>0.6481463084450095</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,19 +685,19 @@
         <v>0.3951499920672696</v>
       </c>
       <c r="P4">
-        <v>0.3951499920672696</v>
+        <v>0.3951499920672695</v>
       </c>
       <c r="Q4">
-        <v>0.111131928448</v>
+        <v>0.2177888513168889</v>
       </c>
       <c r="R4">
-        <v>1.000187356032</v>
+        <v>1.960099661852</v>
       </c>
       <c r="S4">
-        <v>0.1335086846019183</v>
+        <v>0.2561150086404755</v>
       </c>
       <c r="T4">
-        <v>0.1335086846019183</v>
+        <v>0.2561150086404755</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -702,31 +705,31 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.214176</v>
+        <v>0.4197276666666667</v>
       </c>
       <c r="H5">
-        <v>0.642528</v>
+        <v>1.259183</v>
       </c>
       <c r="I5">
-        <v>0.3378683722184916</v>
+        <v>0.6481463084450094</v>
       </c>
       <c r="J5">
-        <v>0.3378683722184916</v>
+        <v>0.6481463084450095</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -735,7 +738,7 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7942436666666666</v>
+        <v>0.7942436666666667</v>
       </c>
       <c r="N5">
         <v>2.382731</v>
@@ -747,16 +750,140 @@
         <v>0.6048500079327305</v>
       </c>
       <c r="Q5">
+        <v>0.3333660409747778</v>
+      </c>
+      <c r="R5">
+        <v>3.000294368773</v>
+      </c>
+      <c r="S5">
+        <v>0.3920312998045339</v>
+      </c>
+      <c r="T5">
+        <v>0.392031299804534</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.214176</v>
+      </c>
+      <c r="H6">
+        <v>0.642528</v>
+      </c>
+      <c r="I6">
+        <v>0.3307320312238611</v>
+      </c>
+      <c r="J6">
+        <v>0.3307320312238611</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.5188813333333333</v>
+      </c>
+      <c r="N6">
+        <v>1.556644</v>
+      </c>
+      <c r="O6">
+        <v>0.3951499920672696</v>
+      </c>
+      <c r="P6">
+        <v>0.3951499920672695</v>
+      </c>
+      <c r="Q6">
+        <v>0.111131928448</v>
+      </c>
+      <c r="R6">
+        <v>1.000187356032</v>
+      </c>
+      <c r="S6">
+        <v>0.1306887595145007</v>
+      </c>
+      <c r="T6">
+        <v>0.1306887595145007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.214176</v>
+      </c>
+      <c r="H7">
+        <v>0.642528</v>
+      </c>
+      <c r="I7">
+        <v>0.3307320312238611</v>
+      </c>
+      <c r="J7">
+        <v>0.3307320312238611</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.7942436666666667</v>
+      </c>
+      <c r="N7">
+        <v>2.382731</v>
+      </c>
+      <c r="O7">
+        <v>0.6048500079327305</v>
+      </c>
+      <c r="P7">
+        <v>0.6048500079327305</v>
+      </c>
+      <c r="Q7">
         <v>0.170107931552</v>
       </c>
-      <c r="R5">
+      <c r="R7">
         <v>1.530971383968</v>
       </c>
-      <c r="S5">
-        <v>0.2043596876165734</v>
-      </c>
-      <c r="T5">
-        <v>0.2043596876165734</v>
+      <c r="S7">
+        <v>0.2000432717093604</v>
+      </c>
+      <c r="T7">
+        <v>0.2000432717093604</v>
       </c>
     </row>
   </sheetData>
